--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3577.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3577.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.068570492699538</v>
+        <v>5.502985000610352</v>
       </c>
       <c r="B1">
-        <v>1.606817095909953</v>
+        <v>2.737139701843262</v>
       </c>
       <c r="C1">
-        <v>3.486985766485017</v>
+        <v>1.806487083435059</v>
       </c>
       <c r="D1">
-        <v>4.545599620582565</v>
+        <v>1.568248152732849</v>
       </c>
       <c r="E1">
-        <v>1.328086047975822</v>
+        <v>1.538068294525146</v>
       </c>
     </row>
   </sheetData>
